--- a/QA/testcases/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi-ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi-ok.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13650"/>
+    <workbookView windowWidth="27465" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379">
   <si>
     <t>Step No</t>
   </si>
@@ -540,6 +540,9 @@
     <t>APP_INS_NUMBER</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Enter Policy number</t>
   </si>
   <si>
@@ -558,6 +561,9 @@
     <t>APP_SUBS_NAME</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>Enter Subscriber name</t>
   </si>
   <si>
@@ -603,31 +609,262 @@
     <t>Yes clicked</t>
   </si>
   <si>
-    <t>SAVE_PROGRESS_BUTTON</t>
-  </si>
-  <si>
-    <t>OK_BUTTON</t>
-  </si>
-  <si>
-    <t>INCOMPLETE_APPLICATION</t>
-  </si>
-  <si>
-    <t>COMPLETE_APPLICATION</t>
-  </si>
-  <si>
-    <t>POLICY_DETAIL_TITLE</t>
-  </si>
-  <si>
-    <t>CANCEL_LINK</t>
-  </si>
-  <si>
-    <t>Click on Cancel link</t>
-  </si>
-  <si>
-    <t>Cancel link clicked</t>
-  </si>
-  <si>
-    <t>CONFIRM_BUTTON_POPUP</t>
+    <t>APP_MEDI_SERVICE</t>
+  </si>
+  <si>
+    <t>Co-Pay or Coinsurance for medical services:</t>
+  </si>
+  <si>
+    <t>Entered</t>
+  </si>
+  <si>
+    <t>APP_PHARMACY_BENEFITS</t>
+  </si>
+  <si>
+    <t>Co-Pay or Coinsurance for pharmacy benefits:</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_PART_NO</t>
+  </si>
+  <si>
+    <t>Do you have Medicare Part D?</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_SUPP_NO</t>
+  </si>
+  <si>
+    <t>Does the patient have a Medicare Supplement?</t>
+  </si>
+  <si>
+    <t>No clicked</t>
+  </si>
+  <si>
+    <t>APP_SEC_INSURANCE_NO</t>
+  </si>
+  <si>
+    <t>Do you have Secondary Insurance?</t>
+  </si>
+  <si>
+    <t>APP_COBRA _EFFECT_NO</t>
+  </si>
+  <si>
+    <t>Is insurance coverage continuation under COBRA in effect?</t>
+  </si>
+  <si>
+    <t>PHYSICIAN_CHECKBOX</t>
+  </si>
+  <si>
+    <t>PRIMAY_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Type Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis entered</t>
+  </si>
+  <si>
+    <t>Select Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis selected</t>
+  </si>
+  <si>
+    <t>DATE_OF_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Select Diagnosis date</t>
+  </si>
+  <si>
+    <t>Diagnosis date selected</t>
+  </si>
+  <si>
+    <t>MEDICATION_NAME</t>
+  </si>
+  <si>
+    <t>Con</t>
+  </si>
+  <si>
+    <t>Type Medication name</t>
+  </si>
+  <si>
+    <t>Medication name entered</t>
+  </si>
+  <si>
+    <t>Select Medication name</t>
+  </si>
+  <si>
+    <t>Medication name selected</t>
+  </si>
+  <si>
+    <t>DOSAGE</t>
+  </si>
+  <si>
+    <t>TestDosage</t>
+  </si>
+  <si>
+    <t>Enter Dosage</t>
+  </si>
+  <si>
+    <t>Dosage entered</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Enter frequency</t>
+  </si>
+  <si>
+    <t>Frequency entered</t>
+  </si>
+  <si>
+    <t>SELF_LASTPAGE</t>
+  </si>
+  <si>
+    <t>Check Self</t>
+  </si>
+  <si>
+    <t>Self checked</t>
+  </si>
+  <si>
+    <t>AGREE_CHECKBOX_STEP7</t>
+  </si>
+  <si>
+    <t>AGREE_SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on AGREE and Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button clicked </t>
+  </si>
+  <si>
+    <t>Wait for popup</t>
+  </si>
+  <si>
+    <t>Popup loaded</t>
+  </si>
+  <si>
+    <t>PATIENT_AGREE_CHECKBOX</t>
+  </si>
+  <si>
+    <t>Check agree box</t>
+  </si>
+  <si>
+    <t>Agree box checked</t>
+  </si>
+  <si>
+    <t>AGREE_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Agree button</t>
+  </si>
+  <si>
+    <t>Agree button clicked</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>Enter Signature</t>
+  </si>
+  <si>
+    <t>Signature entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_NAME</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Enter Name</t>
+  </si>
+  <si>
+    <t>Name entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_PHONE</t>
+  </si>
+  <si>
+    <t>SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>Click Sign and submit button</t>
+  </si>
+  <si>
+    <t>Sign and submit button clicked</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>SUBMIT_PATIENT_NAME</t>
+  </si>
+  <si>
+    <t>Get Patient Name</t>
+  </si>
+  <si>
+    <t>Retrieved succussfully</t>
+  </si>
+  <si>
+    <t>SUBMIT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>Get Fund Name</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_FROM</t>
+  </si>
+  <si>
+    <t>Get award period from</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get award period to </t>
+  </si>
+  <si>
+    <t>SUBMIT_CARDHOLDER</t>
+  </si>
+  <si>
+    <t>Get cardholder</t>
+  </si>
+  <si>
+    <t>SUBMIT_BIN</t>
+  </si>
+  <si>
+    <t>Get BIN</t>
+  </si>
+  <si>
+    <t>SUBMIT_PCN</t>
+  </si>
+  <si>
+    <t>Get PCN</t>
+  </si>
+  <si>
+    <t>SUBMIT_GROUP</t>
+  </si>
+  <si>
+    <t>Get group</t>
+  </si>
+  <si>
+    <t>RETURN_HOME</t>
+  </si>
+  <si>
+    <t>Click on return home</t>
+  </si>
+  <si>
+    <t>Return home clicked</t>
   </si>
   <si>
     <t>PATIENT_LOGOUT</t>
@@ -709,9 +946,6 @@
   </si>
   <si>
     <t>MouseOverAndClick</t>
-  </si>
-  <si>
-    <t>GetText</t>
   </si>
   <si>
     <t>GetAttribute</t>
@@ -941,10 +1175,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -996,14 +1230,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1011,9 +1245,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1026,16 +1268,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,7 +1292,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1064,14 +1306,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1079,9 +1313,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1096,15 +1329,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,6 +1342,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1124,8 +1350,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1152,25 +1386,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,13 +1518,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,19 +1554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,109 +1566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,6 +1619,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1400,15 +1654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1420,6 +1665,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1453,45 +1716,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1503,40 +1737,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1545,92 +1779,92 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1646,7 +1880,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1776,8 +2009,8 @@
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1791,8 +2024,8 @@
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2074,10 +2307,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H94"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2085,10 +2318,10 @@
     <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.8571428571429" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.4285714285714" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
     <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.7142857142857" style="4" customWidth="1"/>
     <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
     <col min="9" max="16384" width="8.85714285714286" style="4"/>
   </cols>
@@ -2750,7 +2983,7 @@
       <c r="F31" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>87</v>
       </c>
       <c r="H31" s="10"/>
@@ -2765,14 +2998,14 @@
       <c r="C32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="11" t="s">
         <v>58</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="7" t="s">
         <v>56</v>
       </c>
       <c r="H32" s="8"/>
@@ -2794,677 +3027,677 @@
       <c r="F33" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="9" t="s">
         <v>91</v>
       </c>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="9">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10">
+      <c r="C34" s="8"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="8">
         <v>5</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="10"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="7">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="9">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="10" t="s">
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H36" s="10"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="7">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
+      <c r="E37" s="10"/>
+      <c r="F37" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="9">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H38" s="10"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="7">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="9">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="8">
         <v>10001</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H40" s="10"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="7">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H41" s="8"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="9">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="7">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="10">
         <v>9876543210</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="9">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="7">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
+      <c r="E45" s="10"/>
+      <c r="F45" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H45" s="8"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="9">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10">
+      <c r="C46" s="8"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="8">
         <v>4</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="10"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="7">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="9">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="10" t="s">
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H48" s="10"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="7">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="8">
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10">
         <v>4</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="9">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10" t="s">
+      <c r="E50" s="8"/>
+      <c r="F50" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H50" s="10"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="7">
+      <c r="A51" s="9">
         <v>50</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="13">
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10">
         <v>4</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="9">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="10" t="s">
+      <c r="E52" s="8"/>
+      <c r="F52" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H52" s="10"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="7">
+      <c r="A53" s="9">
         <v>52</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="9">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10">
+      <c r="C54" s="8"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="8">
         <v>1</v>
       </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="7">
+      <c r="A55" s="9">
         <v>54</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="9">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H56" s="10"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="7">
+      <c r="A57" s="9">
         <v>56</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H57" s="8"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="9">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H58" s="10"/>
+      <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="7">
+      <c r="A59" s="9">
         <v>58</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H59" s="8"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="9">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H60" s="10"/>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="9">
         <v>60</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H61" s="8"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="8">
         <v>10001</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G62" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H62" s="10"/>
+      <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="9">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="10">
         <v>9789123456</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H63" s="8"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="9">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E64" s="13"/>
+      <c r="E64" s="8"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+      <c r="G64" s="7"/>
       <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="7">
+      <c r="A65" s="9">
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
@@ -3473,22 +3706,22 @@
       <c r="C65" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="10" t="s">
         <v>154</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="9" t="s">
         <v>156</v>
       </c>
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="9">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
@@ -3504,7 +3737,7 @@
       <c r="F66" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="7" t="s">
         <v>91</v>
       </c>
       <c r="H66" s="8"/>
@@ -3524,270 +3757,268 @@
       <c r="F67" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" s="4" customFormat="1" spans="1:8">
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="B68" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" s="4" customFormat="1" spans="1:8">
       <c r="A69" s="9">
         <v>68</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8">
-        <v>2</v>
-      </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="9">
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10">
+        <v>4</v>
+      </c>
+      <c r="F69" s="10"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" s="4" customFormat="1" spans="1:8">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="7">
+      <c r="B70" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" s="4" customFormat="1" spans="1:8">
+      <c r="A71" s="9">
         <v>70</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C71" s="8" t="s">
+      <c r="B71" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10">
+        <v>4</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H71" s="8"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="9">
-        <v>71</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="H72" s="10"/>
+      <c r="D72" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="9">
         <v>72</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H73" s="8"/>
+      <c r="B73" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10">
+        <v>2</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="H74" s="10"/>
+      <c r="B74" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="9">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C75" s="8" t="s">
+      <c r="B75" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D76" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="9">
+        <v>76</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E75" s="8">
-        <v>1235647899</v>
-      </c>
-      <c r="F75" s="8" t="s">
+      <c r="G78" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G75" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="H75" s="8"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="9">
-        <v>75</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="7">
-        <v>76</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="H77" s="8"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="9">
-        <v>77</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E78" s="10">
-        <v>97890456789</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="H78" s="10"/>
+      <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="9">
         <v>78</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H79" s="8"/>
+      <c r="B79" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E79" s="10">
+        <v>1235647899</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H79" s="10"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="7">
@@ -3797,14 +4028,14 @@
         <v>19</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
+      <c r="G80" s="7"/>
       <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8">
@@ -3812,67 +4043,91 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="10">
-        <v>4</v>
-      </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>185</v>
+      </c>
       <c r="H81" s="10"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="9">
+      <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E82" s="8">
+        <v>97890456789</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="9">
+        <v>82</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C83" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D83" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G83" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="7">
-        <v>82</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="10">
-        <v>5</v>
-      </c>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
       <c r="H83" s="10"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="9">
+      <c r="A84" s="7">
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
+      <c r="E84" s="8">
+        <v>1230</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8">
@@ -3880,15 +4135,23 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="E85" s="10">
-        <v>3</v>
-      </c>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
+        <v>1550</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="H85" s="10"/>
     </row>
     <row r="86" spans="1:8">
@@ -3902,11 +4165,15 @@
         <v>32</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
+      <c r="F86" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8">
@@ -3914,71 +4181,87 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10">
-        <v>4</v>
-      </c>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>201</v>
+      </c>
       <c r="H87" s="10"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="9">
+      <c r="A88" s="7">
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
+      <c r="F88" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="7">
+      <c r="A89" s="9">
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>195</v>
+        <v>32</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>197</v>
+        <v>205</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="H89" s="10"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="9">
+      <c r="A90" s="7">
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8">
-        <v>1</v>
-      </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:8">
@@ -3986,17 +4269,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10">
+        <v>4</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" s="10"/>
     </row>
     <row r="92" spans="1:8">
@@ -4004,57 +4289,1119 @@
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8">
-        <v>4</v>
-      </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="9">
         <v>92</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10">
+        <v>4</v>
+      </c>
+      <c r="F93" s="10"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="10"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7">
+        <v>93</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C94" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="9">
+        <v>94</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10">
+        <v>4</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="10"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="7">
+        <v>95</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D93" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="H93" s="8"/>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="9">
-        <v>93</v>
-      </c>
-      <c r="B94" s="10" t="s">
+      <c r="D96" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="8"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="9">
+        <v>96</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H97" s="10"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="7">
+        <v>97</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10">
+      <c r="C98" s="8"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="8">
         <v>4</v>
       </c>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
+      <c r="F98" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="8"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="9">
+        <v>98</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H99" s="10"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="7">
+        <v>99</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="8">
+        <v>4</v>
+      </c>
+      <c r="F100" s="8"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="8"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="9">
+        <v>100</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H101" s="10"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="7">
+        <v>101</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="8">
+        <v>4</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" s="8"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="9">
+        <v>102</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H103" s="10"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="7">
+        <v>103</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="8">
+        <v>2</v>
+      </c>
+      <c r="F104" s="8"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="8"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="9">
+        <v>104</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H105" s="10"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="7">
+        <v>105</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H106" s="8"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="9">
+        <v>106</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H107" s="10"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="7">
+        <v>107</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H108" s="8"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="9">
+        <v>108</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H109" s="10"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="7">
+        <v>109</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H110" s="8"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="9">
+        <v>110</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H111" s="10"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="7">
+        <v>111</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H112" s="8"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="9">
+        <v>112</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10">
+        <v>4</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" s="10"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="7">
+        <v>113</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H114" s="8"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="9">
+        <v>114</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10">
+        <v>4</v>
+      </c>
+      <c r="F115" s="10"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="10"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="7">
+        <v>115</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H116" s="8"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="9">
+        <v>116</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10">
+        <v>4</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" s="10"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="7">
+        <v>117</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H118" s="8"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="9">
+        <v>118</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10">
+        <v>1</v>
+      </c>
+      <c r="F119" s="10"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="10"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="7">
+        <v>119</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="8"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="9">
+        <v>120</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10">
+        <v>1</v>
+      </c>
+      <c r="F121" s="10"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="10"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="7">
+        <v>121</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H122" s="8"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="9">
+        <v>122</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10">
+        <v>3</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H123" s="10"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="7">
+        <v>123</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H124" s="8"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="9">
+        <v>124</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10">
+        <v>3</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H125" s="10"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="7">
+        <v>125</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H126" s="8"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="9">
+        <v>126</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H127" s="10"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="7">
+        <v>127</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="8"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="8">
+        <v>2</v>
+      </c>
+      <c r="F128" s="8"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="8"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="9">
+        <v>128</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H129" s="10"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="7">
+        <v>129</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H130" s="8"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="9">
+        <v>130</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E131" s="10">
+        <v>9889656446</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H131" s="10"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="7">
+        <v>131</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H132" s="8"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="9">
+        <v>132</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10">
+        <v>4</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H133" s="10"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="7">
+        <v>133</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H134" s="8"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="9">
+        <v>134</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="H135" s="10"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="7">
+        <v>135</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H136" s="8"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="9">
+        <v>136</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="H137" s="10"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="7">
+        <v>137</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H138" s="8"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="9">
+        <v>138</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="H139" s="10"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="7">
+        <v>139</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H140" s="8"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="9">
+        <v>140</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="H141" s="10"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="7">
+        <v>141</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H142" s="8"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="9">
+        <v>142</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10">
+        <v>5</v>
+      </c>
+      <c r="F143" s="10"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="10"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="7">
+        <v>143</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H144" s="8"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="9">
+        <v>144</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10">
+        <v>4</v>
+      </c>
+      <c r="F145" s="10"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="10"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
@@ -4067,10 +5414,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45 C48 C66 C27:C33">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47 B48 B49 B50 B51 B52 B64 B1:B46 B53:B54 B55:B63 B65:B67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47 B48 B49 B50 B51 B52 B64 B68 B69 B92 B93 B99 B100 B114 B115 B123 B125 B126 B1:B46 B53:B54 B55:B63 B65:B67 B70:B71 B75:B91 B94:B95 B96:B98 B101:B102 B103:B113 B116:B117 B118:B121 B128:B143 B144:B145">
+      <formula1/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C70 C94 C97 C101 C116">
+      <formula1>[4]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C90">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B86 C86 B68:B85 B87:B88 B89:B92 B93:B94 C68:C85 C87:C88 C89:C92 C93:C94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72:B74 C72:C74">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -4101,7 +5454,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4109,20 +5462,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -4133,20 +5486,20 @@
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -4154,42 +5507,42 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>295</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>297</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>220</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="3:3">
@@ -4204,12 +5557,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>221</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -4219,55 +5572,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>224</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>225</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>230</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>232</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -4277,152 +5630,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>234</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>236</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>239</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>240</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>241</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>242</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>243</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>244</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>246</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>247</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>249</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>250</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>251</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>252</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>253</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>255</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>256</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>258</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>259</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>260</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>261</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -4432,37 +5785,37 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>263</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>264</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>265</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>266</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>267</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>268</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>269</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="3:3">
@@ -4472,164 +5825,164 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>271</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>274</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>279</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>280</v>
+        <v>358</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>281</v>
+        <v>359</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>283</v>
+        <v>361</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>284</v>
+        <v>362</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>285</v>
+        <v>363</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>286</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>287</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>288</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>289</v>
+        <v>367</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>290</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>291</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>292</v>
+        <v>370</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>293</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>294</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>295</v>
+        <v>373</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>296</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>297</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>298</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>299</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -4644,7 +5997,7 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>300</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi-ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi-ok.xlsx
@@ -81,7 +81,7 @@
     <t>ByID</t>
   </si>
   <si>
-    <t>SSN_TEXT_FIELD</t>
+    <t>SSN_FIELD</t>
   </si>
   <si>
     <t>Enter SSN</t>
@@ -1175,10 +1175,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1221,29 +1221,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1267,6 +1244,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1275,9 +1267,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1291,8 +1298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1314,17 +1322,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1335,31 +1357,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1386,7 +1386,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,13 +1422,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,157 +1560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1621,11 +1621,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1634,7 +1647,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1649,6 +1662,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1671,9 +1699,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1681,51 +1711,21 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1737,130 +1737,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1876,8 +1876,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -2309,8 +2309,8 @@
   <sheetPr/>
   <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2400,7 +2400,7 @@
       <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="8"/>
@@ -2422,7 +2422,7 @@
       <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10"/>
@@ -2444,7 +2444,7 @@
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -2468,7 +2468,7 @@
       <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2492,7 +2492,7 @@
       <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="8"/>
@@ -2514,7 +2514,7 @@
       <c r="C9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="10"/>
@@ -2532,7 +2532,7 @@
       <c r="C10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="8"/>
@@ -2570,7 +2570,7 @@
       <c r="C12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="8"/>
@@ -2586,7 +2586,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="10">
         <v>4</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="C14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="8"/>
@@ -2638,7 +2638,7 @@
       <c r="C16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="13" t="s">
@@ -2660,7 +2660,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="14">
         <v>2</v>
       </c>
@@ -2678,7 +2678,7 @@
       <c r="C18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="8">
@@ -2702,7 +2702,7 @@
       <c r="C19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="10">
@@ -2726,7 +2726,7 @@
       <c r="C20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="8"/>
@@ -2748,7 +2748,7 @@
       <c r="C21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="10"/>
@@ -2770,7 +2770,7 @@
       <c r="C22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="8"/>
@@ -2792,7 +2792,7 @@
       <c r="C23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="10">
@@ -2858,7 +2858,7 @@
       <c r="C26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -2998,7 +2998,7 @@
       <c r="C32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="12" t="s">
         <v>58</v>
       </c>
       <c r="E32" s="8"/>
@@ -3040,7 +3040,7 @@
         <v>11</v>
       </c>
       <c r="C34" s="8"/>
-      <c r="D34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="8">
         <v>5</v>
       </c>
@@ -3086,7 +3086,7 @@
       <c r="C36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="12" t="s">
         <v>96</v>
       </c>
       <c r="E36" s="8"/>
@@ -3130,7 +3130,7 @@
       <c r="C38" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="12" t="s">
         <v>102</v>
       </c>
       <c r="E38" s="8" t="s">
@@ -3178,7 +3178,7 @@
       <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="12" t="s">
         <v>110</v>
       </c>
       <c r="E40" s="8">
@@ -3226,7 +3226,7 @@
       <c r="C42" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="12" t="s">
         <v>115</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -3266,7 +3266,7 @@
       <c r="C44" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="12" t="s">
         <v>118</v>
       </c>
       <c r="E44" s="8" t="s">
@@ -3306,7 +3306,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="8"/>
-      <c r="D46" s="11"/>
+      <c r="D46" s="12"/>
       <c r="E46" s="8">
         <v>4</v>
       </c>
@@ -3346,7 +3346,7 @@
       <c r="C48" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="12" t="s">
         <v>89</v>
       </c>
       <c r="E48" s="8"/>
@@ -3384,7 +3384,7 @@
       <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="12" t="s">
         <v>121</v>
       </c>
       <c r="E50" s="8"/>
@@ -3422,7 +3422,7 @@
       <c r="C52" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="12" t="s">
         <v>120</v>
       </c>
       <c r="E52" s="8"/>
@@ -3460,7 +3460,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="8"/>
-      <c r="D54" s="11"/>
+      <c r="D54" s="12"/>
       <c r="E54" s="8">
         <v>1</v>
       </c>
@@ -3496,7 +3496,7 @@
       <c r="C56" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="12" t="s">
         <v>128</v>
       </c>
       <c r="E56" s="8" t="s">
@@ -3544,7 +3544,7 @@
       <c r="C58" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="12" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="8" t="s">
@@ -3592,7 +3592,7 @@
       <c r="C60" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="12" t="s">
         <v>142</v>
       </c>
       <c r="E60" s="8" t="s">
@@ -3640,7 +3640,7 @@
       <c r="C62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="12" t="s">
         <v>146</v>
       </c>
       <c r="E62" s="8">
@@ -3688,7 +3688,7 @@
       <c r="C64" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="12" t="s">
         <v>153</v>
       </c>
       <c r="E64" s="8"/>
@@ -3730,7 +3730,7 @@
       <c r="C66" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="12" t="s">
         <v>89</v>
       </c>
       <c r="E66" s="8"/>
@@ -3772,7 +3772,7 @@
       <c r="C68" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="12" t="s">
         <v>121</v>
       </c>
       <c r="E68" s="8"/>
@@ -3810,7 +3810,7 @@
       <c r="C70" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="12" t="s">
         <v>89</v>
       </c>
       <c r="E70" s="8"/>
@@ -3852,7 +3852,7 @@
       <c r="C72" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="12" t="s">
         <v>157</v>
       </c>
       <c r="E72" s="8" t="s">
@@ -3890,7 +3890,7 @@
         <v>161</v>
       </c>
       <c r="C74" s="8"/>
-      <c r="D74" s="11"/>
+      <c r="D74" s="12"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8" t="s">
         <v>162</v>
@@ -3934,7 +3934,7 @@
       <c r="C76" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="12" t="s">
         <v>168</v>
       </c>
       <c r="E76" s="8" t="s">
@@ -3982,7 +3982,7 @@
       <c r="C78" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="12" t="s">
         <v>175</v>
       </c>
       <c r="E78" s="8" t="s">
@@ -4030,7 +4030,7 @@
       <c r="C80" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="12" t="s">
         <v>182</v>
       </c>
       <c r="E80" s="8"/>
@@ -4070,7 +4070,7 @@
       <c r="C82" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="12" t="s">
         <v>186</v>
       </c>
       <c r="E82" s="8">
@@ -4116,7 +4116,7 @@
       <c r="C84" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E84" s="8">
@@ -4164,7 +4164,7 @@
       <c r="C86" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="12" t="s">
         <v>197</v>
       </c>
       <c r="E86" s="8"/>
@@ -4208,7 +4208,7 @@
       <c r="C88" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="12" t="s">
         <v>202</v>
       </c>
       <c r="E88" s="8"/>
@@ -4252,7 +4252,7 @@
       <c r="C90" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="12" t="s">
         <v>89</v>
       </c>
       <c r="E90" s="8"/>
@@ -4294,7 +4294,7 @@
       <c r="C92" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="12" t="s">
         <v>121</v>
       </c>
       <c r="E92" s="8"/>
@@ -4332,7 +4332,7 @@
       <c r="C94" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="12" t="s">
         <v>89</v>
       </c>
       <c r="E94" s="8"/>
@@ -4374,7 +4374,7 @@
       <c r="C96" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="12" t="s">
         <v>206</v>
       </c>
       <c r="E96" s="8"/>
@@ -4412,7 +4412,7 @@
         <v>11</v>
       </c>
       <c r="C98" s="8"/>
-      <c r="D98" s="11"/>
+      <c r="D98" s="12"/>
       <c r="E98" s="8">
         <v>4</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>11</v>
       </c>
       <c r="C100" s="8"/>
-      <c r="D100" s="11"/>
+      <c r="D100" s="12"/>
       <c r="E100" s="8">
         <v>4</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>11</v>
       </c>
       <c r="C102" s="8"/>
-      <c r="D102" s="11"/>
+      <c r="D102" s="12"/>
       <c r="E102" s="8">
         <v>4</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>11</v>
       </c>
       <c r="C104" s="8"/>
-      <c r="D104" s="11"/>
+      <c r="D104" s="12"/>
       <c r="E104" s="8">
         <v>2</v>
       </c>
@@ -4572,7 +4572,7 @@
       <c r="C106" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="12" t="s">
         <v>213</v>
       </c>
       <c r="E106" s="8"/>
@@ -4616,7 +4616,7 @@
       <c r="C108" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="12" t="s">
         <v>216</v>
       </c>
       <c r="E108" s="8" t="s">
@@ -4658,7 +4658,7 @@
       <c r="C110" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="12" t="s">
         <v>222</v>
       </c>
       <c r="E110" s="8" t="s">
@@ -4706,7 +4706,7 @@
       <c r="C112" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="12" t="s">
         <v>89</v>
       </c>
       <c r="E112" s="8"/>
@@ -4748,7 +4748,7 @@
       <c r="C114" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D114" s="12" t="s">
         <v>121</v>
       </c>
       <c r="E114" s="8"/>
@@ -4786,7 +4786,7 @@
       <c r="C116" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="12" t="s">
         <v>89</v>
       </c>
       <c r="E116" s="8"/>
@@ -4828,7 +4828,7 @@
       <c r="C118" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="12" t="s">
         <v>230</v>
       </c>
       <c r="E118" s="8"/>
@@ -4866,7 +4866,7 @@
       <c r="C120" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D120" s="12" t="s">
         <v>233</v>
       </c>
       <c r="E120" s="8"/>
@@ -4900,7 +4900,7 @@
       <c r="C122" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="12" t="s">
         <v>234</v>
       </c>
       <c r="E122" s="8"/>
@@ -4942,7 +4942,7 @@
       <c r="C124" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="12" t="s">
         <v>234</v>
       </c>
       <c r="E124" s="8"/>
@@ -4984,7 +4984,7 @@
       <c r="C126" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D126" s="11" t="s">
+      <c r="D126" s="12" t="s">
         <v>239</v>
       </c>
       <c r="E126" s="8"/>
@@ -5026,7 +5026,7 @@
         <v>11</v>
       </c>
       <c r="C128" s="8"/>
-      <c r="D128" s="11"/>
+      <c r="D128" s="12"/>
       <c r="E128" s="8">
         <v>2</v>
       </c>
@@ -5068,7 +5068,7 @@
       <c r="C130" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D130" s="11" t="s">
+      <c r="D130" s="12" t="s">
         <v>249</v>
       </c>
       <c r="E130" s="8" t="s">
@@ -5116,7 +5116,7 @@
       <c r="C132" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="D132" s="12" t="s">
         <v>254</v>
       </c>
       <c r="E132" s="8"/>
@@ -5158,7 +5158,7 @@
       <c r="C134" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D134" s="11" t="s">
+      <c r="D134" s="12" t="s">
         <v>258</v>
       </c>
       <c r="E134" s="8"/>
@@ -5202,7 +5202,7 @@
       <c r="C136" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D136" s="11" t="s">
+      <c r="D136" s="12" t="s">
         <v>263</v>
       </c>
       <c r="E136" s="8"/>
@@ -5246,7 +5246,7 @@
       <c r="C138" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="12" t="s">
         <v>267</v>
       </c>
       <c r="E138" s="8"/>
@@ -5290,7 +5290,7 @@
       <c r="C140" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="D140" s="12" t="s">
         <v>271</v>
       </c>
       <c r="E140" s="8"/>
@@ -5334,7 +5334,7 @@
       <c r="C142" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="D142" s="12" t="s">
         <v>275</v>
       </c>
       <c r="E142" s="8"/>
@@ -5372,7 +5372,7 @@
       <c r="C144" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="D144" s="12" t="s">
         <v>278</v>
       </c>
       <c r="E144" s="8"/>
@@ -5401,7 +5401,7 @@
       <c r="H145" s="10"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
@@ -5411,14 +5411,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C11 C15 C2:C7">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45 C48 C66 C27:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45 C48 C66 C70 C94 C97 C101 C116 C27:C33">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47 B48 B49 B50 B51 B52 B64 B68 B69 B92 B93 B99 B100 B114 B115 B123 B125 B126 B1:B46 B53:B54 B55:B63 B65:B67 B70:B71 B75:B91 B94:B95 B96:B98 B101:B102 B103:B113 B116:B117 B118:B121 B128:B143 B144:B145">
       <formula1/>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C70 C94 C97 C101 C116">
-      <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C90">
       <formula1>[6]DataList!#REF!</formula1>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi-ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi-ok.xlsx
@@ -93,142 +93,142 @@
     <t>Click</t>
   </si>
   <si>
-    <t>NAME_DOB_LINK</t>
-  </si>
-  <si>
-    <t>Click on DOB link</t>
-  </si>
-  <si>
-    <t>DOB link clicked</t>
+    <t>ByXPath</t>
+  </si>
+  <si>
+    <t>SEARCH_BUTTON_LINK</t>
+  </si>
+  <si>
+    <t>Click Search</t>
+  </si>
+  <si>
+    <t>Search button clicked</t>
+  </si>
+  <si>
+    <t>TypeDynamicAlpha</t>
+  </si>
+  <si>
+    <t>FIRST_NAME_FIELD</t>
+  </si>
+  <si>
+    <t>_Fname</t>
+  </si>
+  <si>
+    <t>Enter First name</t>
+  </si>
+  <si>
+    <t>First name entered</t>
+  </si>
+  <si>
+    <t>LAST_NAME_FIELD</t>
+  </si>
+  <si>
+    <t>_Lname</t>
+  </si>
+  <si>
+    <t>Enter last name</t>
+  </si>
+  <si>
+    <t>Last name entered</t>
+  </si>
+  <si>
+    <t>DOB_FIELD</t>
+  </si>
+  <si>
+    <t>Click on DOB field</t>
+  </si>
+  <si>
+    <t>Clicked</t>
+  </si>
+  <si>
+    <t>DOB_DATEPICKER</t>
+  </si>
+  <si>
+    <t>SEARCH_PATIENT_NEW</t>
+  </si>
+  <si>
+    <t>Click on search button</t>
+  </si>
+  <si>
+    <t>Wait for page to load</t>
+  </si>
+  <si>
+    <t>CREATE_APP_LINK</t>
+  </si>
+  <si>
+    <t>Click on create application</t>
+  </si>
+  <si>
+    <t>SelectByVisibleText</t>
+  </si>
+  <si>
+    <t>PATIENT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>Breast Cancer Silo*</t>
+  </si>
+  <si>
+    <t>Enter fund name</t>
+  </si>
+  <si>
+    <t>Fund name entered</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>NUM_OF_PEOPLE</t>
+  </si>
+  <si>
+    <t>Enter no of peoples</t>
+  </si>
+  <si>
+    <t>No of Peoples entered</t>
+  </si>
+  <si>
+    <t>HOUSEHOLD_INCOME</t>
+  </si>
+  <si>
+    <t>Enter household income</t>
+  </si>
+  <si>
+    <t>House income entered</t>
+  </si>
+  <si>
+    <t>DIAGNOSIS_LABEL1_YES</t>
+  </si>
+  <si>
+    <t>Click Yes</t>
+  </si>
+  <si>
+    <t>Clicked Yes</t>
+  </si>
+  <si>
+    <t>TREATMENT_LEBEL_YES</t>
+  </si>
+  <si>
+    <t>TERRITORY_LEBEL_YES</t>
+  </si>
+  <si>
+    <t>REG_ZIP_CODE</t>
+  </si>
+  <si>
+    <t>Enter Zipcode</t>
+  </si>
+  <si>
+    <t>Zipcode entered</t>
+  </si>
+  <si>
+    <t>SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Submit</t>
+  </si>
+  <si>
+    <t>Submitted button clicked</t>
   </si>
   <si>
     <t>TypeDynamicValue</t>
-  </si>
-  <si>
-    <t>FIRST_NAME_FIELD</t>
-  </si>
-  <si>
-    <t>Fname</t>
-  </si>
-  <si>
-    <t>Enter First name</t>
-  </si>
-  <si>
-    <t>First name entered</t>
-  </si>
-  <si>
-    <t>LAST_NAME_FIELD</t>
-  </si>
-  <si>
-    <t>Lname</t>
-  </si>
-  <si>
-    <t>Enter last name</t>
-  </si>
-  <si>
-    <t>Last name entered</t>
-  </si>
-  <si>
-    <t>ByXPath</t>
-  </si>
-  <si>
-    <t>DOB_FIELD</t>
-  </si>
-  <si>
-    <t>Click on DOB field</t>
-  </si>
-  <si>
-    <t>Clicked</t>
-  </si>
-  <si>
-    <t>DOB_DATEPICKER</t>
-  </si>
-  <si>
-    <t>SEARCH_BUTTON_LINK</t>
-  </si>
-  <si>
-    <t>Click on search button</t>
-  </si>
-  <si>
-    <t>Search button clicked</t>
-  </si>
-  <si>
-    <t>SEARCH_PATIENT_NEW</t>
-  </si>
-  <si>
-    <t>CREATE_APP_LINK</t>
-  </si>
-  <si>
-    <t>SelectByVisibleText</t>
-  </si>
-  <si>
-    <t>PATIENT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Breast Cancer Silo*</t>
-  </si>
-  <si>
-    <t>Enter fund name</t>
-  </si>
-  <si>
-    <t>Fund name entered</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>NUM_OF_PEOPLE</t>
-  </si>
-  <si>
-    <t>Enter no of peoples</t>
-  </si>
-  <si>
-    <t>No of Peoples entered</t>
-  </si>
-  <si>
-    <t>HOUSEHOLD_INCOME</t>
-  </si>
-  <si>
-    <t>Enter household income</t>
-  </si>
-  <si>
-    <t>House income entered</t>
-  </si>
-  <si>
-    <t>DIAGNOSIS_LABEL1_YES</t>
-  </si>
-  <si>
-    <t>Click Yes</t>
-  </si>
-  <si>
-    <t>Clicked Yes</t>
-  </si>
-  <si>
-    <t>TREATMENT_LEBEL_YES</t>
-  </si>
-  <si>
-    <t>TERRITORY_LEBEL_YES</t>
-  </si>
-  <si>
-    <t>REG_ZIP_CODE</t>
-  </si>
-  <si>
-    <t>Enter Zipcode</t>
-  </si>
-  <si>
-    <t>Zipcode entered</t>
-  </si>
-  <si>
-    <t>SUBMIT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Submit</t>
-  </si>
-  <si>
-    <t>Submitted button clicked</t>
-  </si>
-  <si>
-    <t>Wait for page to load</t>
   </si>
   <si>
     <t>PATIENT_MIDDLE_NAME</t>
@@ -1221,55 +1221,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1283,16 +1237,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1307,39 +1322,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1357,9 +1358,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1386,7 +1386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,19 +1398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,6 +1422,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1440,13 +1452,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,13 +1536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,97 +1554,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,6 +1628,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1648,36 +1663,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1716,10 +1701,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1737,134 +1737,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1876,10 +1876,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2307,13 +2308,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:Q147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
@@ -2390,305 +2391,433 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="7">
+    <row r="4" spans="1:17">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="9">
+      <c r="H4" s="10"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="7">
+      <c r="G5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="G8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
+        <v>4</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
         <v>5</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10">
-        <v>4</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="C14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8">
         <v>5</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="F17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="14">
-        <v>2</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="8">
-        <v>2</v>
+      <c r="D18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -2697,81 +2826,77 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E21" s="10">
         <v>1000</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="9">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>58</v>
+        <v>20</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
@@ -2787,85 +2912,89 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="10">
-        <v>10001</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="7">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>62</v>
+        <v>20</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="10">
+        <v>10001</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="9">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10">
-        <v>5</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8">
@@ -2873,94 +3002,86 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>69</v>
+        <v>11</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10">
+        <v>5</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="7">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>72</v>
+        <v>15</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="7">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H30" s="8"/>
     </row>
@@ -2972,83 +3093,89 @@
         <v>42</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="B33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E33" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="12" t="s">
+      <c r="C34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="9">
-        <v>32</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="8">
-        <v>5</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="H34" s="8"/>
     </row>
@@ -3057,90 +3184,86 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="10">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="8">
+        <v>5</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="C37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E37" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F37" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G37" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="10">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="9">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H38" s="8"/>
     </row>
@@ -3149,51 +3272,49 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E39" s="10"/>
       <c r="F39" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="7">
+      <c r="A40" s="10">
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="8">
-        <v>10001</v>
+        <v>20</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -3203,37 +3324,41 @@
         <v>15</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="7">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="8">
+        <v>10001</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8">
@@ -3247,75 +3372,77 @@
         <v>15</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="10">
-        <v>9876543210</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="7">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>118</v>
+        <v>20</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="7"/>
       <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>91</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E45" s="10">
+        <v>9876543210</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="9"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="7">
+      <c r="A46" s="10">
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="8">
-        <v>4</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="7"/>
       <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8">
@@ -3326,56 +3453,60 @@
         <v>19</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D47" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="10">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="8">
+        <v>4</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="9">
-        <v>48</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10">
-        <v>4</v>
-      </c>
+      <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="9"/>
       <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="7">
+      <c r="A50" s="10">
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -3384,15 +3515,15 @@
       <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>121</v>
+      <c r="D50" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H50" s="8"/>
     </row>
@@ -3413,59 +3544,63 @@
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="7">
+      <c r="A52" s="10">
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>120</v>
+        <v>15</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="9">
+      <c r="A53" s="8">
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10">
+        <v>4</v>
+      </c>
       <c r="F53" s="10"/>
       <c r="G53" s="9"/>
       <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="7">
+      <c r="A54" s="10">
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="8">
-        <v>1</v>
-      </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8">
@@ -3476,7 +3611,7 @@
         <v>19</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>127</v>
@@ -3487,74 +3622,60 @@
       <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="7">
+      <c r="A56" s="10">
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="8">
+        <v>1</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="10">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D58" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E58" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F58" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="9">
-        <v>56</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="7">
-        <v>57</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="G58" s="7" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="H58" s="8"/>
     </row>
@@ -3563,94 +3684,94 @@
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="7">
+      <c r="A60" s="10">
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>142</v>
+        <v>20</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="9">
+      <c r="A61" s="8">
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="7">
+      <c r="A62" s="10">
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E62" s="8">
-        <v>10001</v>
+        <v>20</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="H62" s="8"/>
     </row>
@@ -3665,81 +3786,83 @@
         <v>15</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E63" s="10">
-        <v>9789123456</v>
+        <v>144</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="7">
+      <c r="A64" s="10">
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="7"/>
+      <c r="D64" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" s="8">
+        <v>10001</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="9">
+      <c r="A65" s="8">
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="E65" s="10">
+        <v>9789123456</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="7">
+      <c r="A66" s="10">
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="12" t="s">
-        <v>89</v>
+      <c r="D66" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="E66" s="8"/>
-      <c r="F66" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>91</v>
-      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="7"/>
       <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:8">
@@ -3747,23 +3870,27 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10">
-        <v>4</v>
+        <v>65</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" s="4" customFormat="1" spans="1:8">
-      <c r="A68" s="7">
+    <row r="68" spans="1:8">
+      <c r="A68" s="10">
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -3772,20 +3899,20 @@
       <c r="C68" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="12" t="s">
-        <v>121</v>
+      <c r="D68" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" s="4" customFormat="1" spans="1:8">
-      <c r="A69" s="9">
+    <row r="69" spans="1:8">
+      <c r="A69" s="8">
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
@@ -3796,12 +3923,16 @@
       <c r="E69" s="10">
         <v>4</v>
       </c>
-      <c r="F69" s="10"/>
-      <c r="G69" s="9"/>
+      <c r="F69" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" s="10"/>
     </row>
     <row r="70" s="4" customFormat="1" spans="1:8">
-      <c r="A70" s="7">
+      <c r="A70" s="10">
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -3810,15 +3941,15 @@
       <c r="C70" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="12" t="s">
-        <v>89</v>
+      <c r="D70" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="H70" s="8"/>
     </row>
@@ -3834,40 +3965,34 @@
       <c r="E71" s="10">
         <v>4</v>
       </c>
-      <c r="F71" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="9"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="7">
+    <row r="72" s="4" customFormat="1" spans="1:8">
+      <c r="A72" s="10">
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>158</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E72" s="8"/>
       <c r="F72" s="8" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="9">
+    <row r="73" s="4" customFormat="1" spans="1:8">
+      <c r="A73" s="8">
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
@@ -3876,27 +4001,37 @@
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10">
-        <v>2</v>
-      </c>
-      <c r="F73" s="10"/>
-      <c r="G73" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="7">
+      <c r="A74" s="10">
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="F74" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H74" s="8"/>
     </row>
@@ -3905,94 +4040,80 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>167</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10">
+        <v>2</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="9"/>
       <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="7">
+      <c r="A76" s="10">
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>169</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="8"/>
       <c r="F76" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="9">
+      <c r="A77" s="8">
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="7">
+      <c r="A78" s="10">
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="12" t="s">
-        <v>175</v>
+      <c r="D78" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H78" s="8"/>
     </row>
@@ -4001,87 +4122,89 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H79" s="10"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="10">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="8">
+        <v>80</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D81" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E81" s="10">
         <v>1235647899</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="F81" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="G81" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H79" s="10"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="7">
-        <v>79</v>
-      </c>
-      <c r="B80" s="8" t="s">
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="10">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D80" s="12" t="s">
+      <c r="C82" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="8"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="9">
-        <v>80</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="H81" s="10"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="7">
-        <v>81</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E82" s="8">
-        <v>97890456789</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>188</v>
-      </c>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="7"/>
       <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:8">
@@ -4092,84 +4215,84 @@
         <v>19</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H83" s="10"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="7">
+      <c r="A84" s="10">
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D84" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E84" s="8">
+        <v>97890456789</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H84" s="8"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="8">
+        <v>84</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H85" s="10"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="10">
+        <v>85</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E86" s="8">
         <v>1230</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F86" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H84" s="8"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="9">
-        <v>84</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="E85" s="10">
-        <v>1550</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H85" s="10"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="7">
-        <v>85</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>194</v>
@@ -4181,61 +4304,63 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E87" s="10"/>
+        <v>195</v>
+      </c>
+      <c r="E87" s="10">
+        <v>1550</v>
+      </c>
       <c r="F87" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H87" s="10"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="7">
+      <c r="A88" s="10">
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>202</v>
+        <v>20</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="9">
+      <c r="A89" s="8">
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G89" s="9" t="s">
         <v>201</v>
@@ -4243,24 +4368,24 @@
       <c r="H89" s="10"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="7">
+      <c r="A90" s="10">
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>89</v>
+        <v>20</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="H90" s="8"/>
     </row>
@@ -4269,23 +4394,25 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10">
-        <v>4</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E91" s="10"/>
       <c r="F91" s="10" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="H91" s="10"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="7">
+      <c r="A92" s="10">
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
@@ -4294,20 +4421,20 @@
       <c r="C92" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D92" s="12" t="s">
-        <v>121</v>
+      <c r="D92" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="9">
+      <c r="A93" s="8">
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
@@ -4318,12 +4445,16 @@
       <c r="E93" s="10">
         <v>4</v>
       </c>
-      <c r="F93" s="10"/>
-      <c r="G93" s="9"/>
+      <c r="F93" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" s="10"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="7">
+      <c r="A94" s="10">
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
@@ -4332,15 +4463,15 @@
       <c r="C94" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="12" t="s">
-        <v>89</v>
+      <c r="D94" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="8" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="H94" s="8"/>
     </row>
@@ -4356,72 +4487,68 @@
       <c r="E95" s="10">
         <v>4</v>
       </c>
-      <c r="F95" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="F95" s="10"/>
+      <c r="G95" s="9"/>
       <c r="H95" s="10"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="7">
+      <c r="A96" s="10">
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D96" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H96" s="8"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="8">
+        <v>96</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10">
+        <v>4</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="10"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="10">
+        <v>97</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="8"/>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="9">
-        <v>96</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H97" s="10"/>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="7">
-        <v>97</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="8">
-        <v>4</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="7"/>
       <c r="H98" s="8"/>
     </row>
     <row r="99" spans="1:8">
@@ -4435,35 +4562,39 @@
         <v>15</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="10" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H99" s="10"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="7">
+      <c r="A100" s="10">
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C100" s="8"/>
-      <c r="D100" s="12"/>
+      <c r="D100" s="11"/>
       <c r="E100" s="8">
         <v>4</v>
       </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="7"/>
+      <c r="F100" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" s="8"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="9">
+      <c r="A101" s="8">
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
@@ -4473,35 +4604,31 @@
         <v>15</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="10" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="H101" s="10"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="7">
+      <c r="A102" s="10">
         <v>101</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="8"/>
-      <c r="D102" s="12"/>
+      <c r="D102" s="11"/>
       <c r="E102" s="8">
         <v>4</v>
       </c>
-      <c r="F102" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="F102" s="8"/>
+      <c r="G102" s="7"/>
       <c r="H102" s="8"/>
     </row>
     <row r="103" spans="1:8">
@@ -4509,79 +4636,81 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>208</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E103" s="10"/>
       <c r="F103" s="10" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="H103" s="10"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="7">
+      <c r="A104" s="10">
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="8"/>
-      <c r="D104" s="12"/>
+      <c r="D104" s="11"/>
       <c r="E104" s="8">
+        <v>4</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" s="8"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="8">
+        <v>104</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H105" s="10"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="10">
+        <v>105</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="8">
         <v>2</v>
       </c>
-      <c r="F104" s="8"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="8"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="9">
-        <v>104</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="H105" s="10"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="7">
-        <v>105</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="7"/>
       <c r="H106" s="8"/>
     </row>
     <row r="107" spans="1:8">
@@ -4589,86 +4718,84 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>183</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H107" s="10"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="10">
+        <v>107</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="G107" s="9" t="s">
+      <c r="G108" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H107" s="10"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="7">
-        <v>107</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="H108" s="8"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="9">
+      <c r="A109" s="8">
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H109" s="10"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="7">
+      <c r="A110" s="10">
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>222</v>
+        <v>20</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H110" s="8"/>
     </row>
@@ -4677,69 +4804,69 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H111" s="10"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="10">
+        <v>111</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="H111" s="10"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="7">
-        <v>111</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D112" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E112" s="8"/>
+      <c r="D112" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="F112" s="8" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="H112" s="8"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="9">
+      <c r="A113" s="8">
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
       <c r="H113" s="10"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="7">
+      <c r="A114" s="10">
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
@@ -4748,15 +4875,15 @@
       <c r="C114" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D114" s="12" t="s">
-        <v>121</v>
+      <c r="D114" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H114" s="8"/>
     </row>
@@ -4772,12 +4899,16 @@
       <c r="E115" s="10">
         <v>4</v>
       </c>
-      <c r="F115" s="10"/>
-      <c r="G115" s="9"/>
+      <c r="F115" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" s="10"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="7">
+      <c r="A116" s="10">
         <v>115</v>
       </c>
       <c r="B116" s="8" t="s">
@@ -4786,20 +4917,20 @@
       <c r="C116" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D116" s="12" t="s">
-        <v>89</v>
+      <c r="D116" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="H116" s="8"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="9">
+      <c r="A117" s="8">
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
@@ -4810,33 +4941,29 @@
       <c r="E117" s="10">
         <v>4</v>
       </c>
-      <c r="F117" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="F117" s="10"/>
+      <c r="G117" s="9"/>
       <c r="H117" s="10"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="7">
+      <c r="A118" s="10">
         <v>117</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>230</v>
+        <v>15</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="8" t="s">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>232</v>
+        <v>91</v>
       </c>
       <c r="H118" s="8"/>
     </row>
@@ -4850,32 +4977,40 @@
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
       <c r="E119" s="10">
-        <v>1</v>
-      </c>
-      <c r="F119" s="10"/>
-      <c r="G119" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" s="10"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="7">
+      <c r="A120" s="10">
         <v>119</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>233</v>
+        <v>20</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>230</v>
       </c>
       <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="7"/>
+      <c r="F120" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>232</v>
+      </c>
       <c r="H120" s="8"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="9">
+      <c r="A121" s="8">
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
@@ -4891,25 +5026,21 @@
       <c r="H121" s="10"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="7">
+      <c r="A122" s="10">
         <v>121</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>234</v>
+        <v>20</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>233</v>
       </c>
       <c r="E122" s="8"/>
-      <c r="F122" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>236</v>
-      </c>
+      <c r="F122" s="8"/>
+      <c r="G122" s="7"/>
       <c r="H122" s="8"/>
     </row>
     <row r="123" spans="1:8">
@@ -4922,27 +5053,23 @@
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10">
-        <v>3</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>238</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F123" s="10"/>
+      <c r="G123" s="9"/>
       <c r="H123" s="10"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="7">
+      <c r="A124" s="10">
         <v>123</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D124" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="11" t="s">
         <v>234</v>
       </c>
       <c r="E124" s="8"/>
@@ -4955,7 +5082,7 @@
       <c r="H124" s="8"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="9">
+      <c r="A125" s="8">
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
@@ -4975,24 +5102,24 @@
       <c r="H125" s="10"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="7">
+      <c r="A126" s="10">
         <v>125</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>239</v>
+        <v>20</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H126" s="8"/>
     </row>
@@ -5001,85 +5128,79 @@
         <v>126</v>
       </c>
       <c r="B127" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10">
+        <v>3</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H127" s="10"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="10">
+        <v>127</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C127" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D127" s="10" t="s">
+      <c r="C128" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H128" s="8"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="8">
+        <v>128</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10" t="s">
+      <c r="E129" s="10"/>
+      <c r="F129" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="G127" s="9" t="s">
+      <c r="G129" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="H127" s="10"/>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="7">
-        <v>127</v>
-      </c>
-      <c r="B128" s="8" t="s">
+      <c r="H129" s="10"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="10">
+        <v>129</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="8">
+      <c r="C130" s="8"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="8">
         <v>2</v>
       </c>
-      <c r="F128" s="8"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="8"/>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="9">
-        <v>128</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="F129" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G129" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="H129" s="10"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="7">
-        <v>129</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>252</v>
-      </c>
+      <c r="F130" s="8"/>
+      <c r="G130" s="7"/>
       <c r="H130" s="8"/>
     </row>
     <row r="131" spans="1:8">
@@ -5087,86 +5208,92 @@
         <v>130</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E131" s="10">
-        <v>9889656446</v>
+        <v>245</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>246</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="H131" s="10"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="7">
+      <c r="A132" s="10">
         <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D132" s="12" t="s">
+      <c r="D132" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H132" s="8"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="8">
+        <v>132</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E133" s="10">
+        <v>9889656446</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H133" s="10"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="10">
+        <v>133</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H132" s="8"/>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="9">
-        <v>132</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10">
-        <v>4</v>
-      </c>
-      <c r="F133" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H133" s="10"/>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="7">
-        <v>133</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D134" s="12" t="s">
-        <v>258</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="8" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H134" s="8"/>
     </row>
@@ -5175,39 +5302,37 @@
         <v>134</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="E135" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10">
+        <v>4</v>
+      </c>
       <c r="F135" s="10" t="s">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>260</v>
+        <v>91</v>
       </c>
       <c r="H135" s="10"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="7">
+      <c r="A136" s="10">
         <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>257</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>263</v>
+        <v>20</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>258</v>
       </c>
       <c r="E136" s="8"/>
       <c r="F136" s="8" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>260</v>
@@ -5215,21 +5340,21 @@
       <c r="H136" s="8"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="9">
+      <c r="A137" s="8">
         <v>136</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>257</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G137" s="9" t="s">
         <v>260</v>
@@ -5237,21 +5362,21 @@
       <c r="H137" s="10"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="7">
+      <c r="A138" s="10">
         <v>137</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>257</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>267</v>
+        <v>20</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>263</v>
       </c>
       <c r="E138" s="8"/>
       <c r="F138" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>260</v>
@@ -5266,14 +5391,14 @@
         <v>257</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G139" s="9" t="s">
         <v>260</v>
@@ -5281,21 +5406,21 @@
       <c r="H139" s="10"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="7">
+      <c r="A140" s="10">
         <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>257</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>271</v>
+        <v>20</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="E140" s="8"/>
       <c r="F140" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>260</v>
@@ -5303,21 +5428,21 @@
       <c r="H140" s="8"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="9">
+      <c r="A141" s="8">
         <v>140</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>257</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E141" s="10"/>
       <c r="F141" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G141" s="9" t="s">
         <v>260</v>
@@ -5325,24 +5450,24 @@
       <c r="H141" s="10"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="7">
+      <c r="A142" s="10">
         <v>141</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>275</v>
+        <v>20</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="E142" s="8"/>
       <c r="F142" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="H142" s="8"/>
     </row>
@@ -5351,41 +5476,47 @@
         <v>142</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10">
-        <v>5</v>
-      </c>
-      <c r="F143" s="10"/>
-      <c r="G143" s="9"/>
+        <v>257</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="H143" s="10"/>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="7">
+      <c r="A144" s="10">
         <v>143</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>278</v>
+        <v>20</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="E144" s="8"/>
       <c r="F144" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H144" s="8"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="9">
+      <c r="A145" s="8">
         <v>144</v>
       </c>
       <c r="B145" s="10" t="s">
@@ -5394,33 +5525,74 @@
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
       <c r="E145" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="9"/>
       <c r="H145" s="10"/>
     </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="10">
+        <v>145</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H146" s="8"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="9">
+        <v>146</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10">
+        <v>4</v>
+      </c>
+      <c r="F147" s="10"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="10"/>
+    </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10 C12:C14 C16:C26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B4:B17 C7:C9 C14:C17">
+      <formula1>[1]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8 L10 C18:C28">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C11 C15 C2:C7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9 L11 L12 L13 L17 C2:C3 L4:L7 L14:L16">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45 C48 C66 C70 C94 C97 C101 C116 C27:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12 K13 K17 B49 B50 B51 B52 B53 B54 B66 B70 B71 B94 B95 B101 B102 B116 B117 B125 B127 B128 B1:B3 B18:B48 B55:B56 B57:B65 B67:B69 B72:B73 B77:B93 B96:B97 B98:B100 B103:B104 B105:B115 B118:B119 B120:B123 B130:B145 B146:B147 K4:K11 K14:K16">
+      <formula1/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C47 C50 C68 C72 C96 C99 C103 C118 C29:C35">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47 B48 B49 B50 B51 B52 B64 B68 B69 B92 B93 B99 B100 B114 B115 B123 B125 B126 B1:B46 B53:B54 B55:B63 B65:B67 B70:B71 B75:B91 B94:B95 B96:B98 B101:B102 B103:B113 B116:B117 B118:B121 B128:B143 B144:B145">
-      <formula1/>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C90">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C92">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72:B74 C72:C74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:B76 C74:C76">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5480,7 +5652,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>286</v>
@@ -5564,7 +5736,7 @@
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="3:3">

--- a/QA/testcases/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi-ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi-ok.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376">
   <si>
     <t>Step No</t>
   </si>
@@ -328,15 +328,6 @@
   </si>
   <si>
     <t>add 1 entered</t>
-  </si>
-  <si>
-    <t>CONTACT_ADDRESS_LINE2</t>
-  </si>
-  <si>
-    <t>Enter Add2</t>
-  </si>
-  <si>
-    <t>add 2 entered</t>
   </si>
   <si>
     <t>CONTACT_STATE</t>
@@ -1175,10 +1166,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1221,27 +1212,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1261,9 +1244,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1271,6 +1253,45 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1293,13 +1314,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1307,7 +1321,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1322,44 +1350,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1392,7 +1383,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,19 +1407,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,25 +1485,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,36 +1521,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1506,61 +1533,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,6 +1634,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1654,15 +1654,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1682,26 +1673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1716,16 +1687,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1737,130 +1728,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2308,10 +2299,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q147"/>
+  <dimension ref="A1:Q146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A147"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -2412,7 +2403,6 @@
         <v>18</v>
       </c>
       <c r="H4" s="10"/>
-      <c r="I4" s="4"/>
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -2443,7 +2433,6 @@
         <v>23</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="4"/>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -2468,7 +2457,6 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="4"/>
       <c r="J6" s="7"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -2501,7 +2489,6 @@
         <v>28</v>
       </c>
       <c r="H7" s="8"/>
-      <c r="I7" s="4"/>
       <c r="J7" s="9"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -2534,7 +2521,6 @@
         <v>32</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="4"/>
       <c r="J8" s="7"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -2565,7 +2551,6 @@
         <v>35</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="4"/>
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -2592,7 +2577,6 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="4"/>
       <c r="J10" s="7"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -2617,7 +2601,6 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="4"/>
       <c r="J11" s="9"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -3268,2313 +3251,2291 @@
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="9">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="B39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10" t="s">
+      <c r="E39" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H39" s="10"/>
+      <c r="G39" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="10">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="8" t="s">
+      <c r="B40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="E40" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="F40" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="H40" s="8"/>
+      <c r="G40" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="10" t="s">
+      <c r="D41" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H41" s="10"/>
+      <c r="E41" s="8">
+        <v>10001</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="10">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H42" s="8"/>
+      <c r="G42" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="10" t="s">
+      <c r="B43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="E43" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G43" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H43" s="10"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="10">
         <v>43</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="8"/>
+      <c r="B44" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="10">
+        <v>9876543210</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" s="10">
-        <v>9876543210</v>
-      </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10"/>
+      <c r="B45" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="10">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="8"/>
+      <c r="B46" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="9">
+      <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47" s="10"/>
+      <c r="B47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="8">
+        <v>4</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="10">
         <v>47</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="8">
-        <v>4</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="8"/>
+      <c r="B48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="10"/>
+      <c r="C49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="10">
         <v>49</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10">
+        <v>4</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="9">
-        <v>50</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10">
-        <v>4</v>
-      </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="10"/>
+      <c r="D51" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="10">
         <v>51</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H52" s="8"/>
+      <c r="B52" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10">
+        <v>4</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10">
-        <v>4</v>
-      </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="10"/>
+      <c r="B53" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="10">
         <v>53</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H54" s="8"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="9">
+      <c r="A55" s="8">
         <v>54</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="10"/>
+      <c r="B55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="8">
+        <v>1</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="10">
         <v>55</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="8">
-        <v>1</v>
-      </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="8"/>
+      <c r="B56" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="10" t="s">
+      <c r="B57" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="10"/>
+      <c r="G57" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="10">
         <v>57</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G58" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H58" s="8"/>
+      <c r="G58" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="9">
+      <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="10" t="s">
+      <c r="B59" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G59" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" s="10"/>
+      <c r="G59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="10">
         <v>59</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="8" t="s">
+      <c r="B60" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="E60" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="F60" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H60" s="8"/>
+      <c r="G60" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="8">
         <v>60</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E61" s="10" t="s">
+      <c r="B61" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="E61" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G61" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H61" s="10"/>
+      <c r="G61" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="10">
         <v>61</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="11" t="s">
+      <c r="B62" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F62" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E62" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F62" s="8" t="s">
+      <c r="G62" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G62" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H62" s="8"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="9">
-        <v>62</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="10" t="s">
+      <c r="E63" s="8">
+        <v>10001</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F63" s="10" t="s">
+      <c r="G63" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G63" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H63" s="10"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="10">
         <v>63</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E64" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F64" s="8" t="s">
+      <c r="E64" s="10">
+        <v>9789123456</v>
+      </c>
+      <c r="F64" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="H64" s="8"/>
+      <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8">
         <v>64</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C65" s="10" t="s">
+      <c r="B65" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E65" s="10">
-        <v>9789123456</v>
-      </c>
-      <c r="F65" s="10" t="s">
+      <c r="D65" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G65" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H65" s="10"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="10">
         <v>65</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="G66" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="8"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="9">
-        <v>66</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H67" s="10"/>
+      <c r="D67" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="10">
         <v>67</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H68" s="8"/>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="B68" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10">
+        <v>4</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" s="4" customFormat="1" spans="1:8">
       <c r="A69" s="8">
         <v>68</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10">
-        <v>4</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="10"/>
+      <c r="B69" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H69" s="8"/>
     </row>
     <row r="70" s="4" customFormat="1" spans="1:8">
       <c r="A70" s="10">
         <v>69</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10">
+        <v>4</v>
+      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" s="4" customFormat="1" spans="1:8">
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H70" s="8"/>
-    </row>
-    <row r="71" s="4" customFormat="1" spans="1:8">
-      <c r="A71" s="9">
-        <v>70</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10">
-        <v>4</v>
-      </c>
-      <c r="F71" s="10"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="10"/>
+      <c r="D71" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="8"/>
     </row>
     <row r="72" s="4" customFormat="1" spans="1:8">
       <c r="A72" s="10">
         <v>71</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H72" s="8"/>
-    </row>
-    <row r="73" s="4" customFormat="1" spans="1:8">
+      <c r="B72" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10">
+        <v>4</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="10"/>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="8">
         <v>72</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10">
-        <v>4</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="10"/>
+      <c r="B73" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="10">
         <v>73</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E74" s="8" t="s">
+      <c r="B74" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10">
+        <v>2</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="10"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="8">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="C75" s="8"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G75" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H74" s="8"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="9">
-        <v>74</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10">
-        <v>2</v>
-      </c>
-      <c r="F75" s="10"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="10"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="10">
         <v>75</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8" t="s">
+      <c r="E76" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="F76" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="H76" s="8"/>
+      <c r="G76" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="8">
         <v>76</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E77" s="10" t="s">
+      <c r="B77" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="E77" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="F77" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H77" s="10"/>
+      <c r="G77" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="10">
         <v>77</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H78" s="10"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H78" s="8"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="9">
-        <v>78</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F79" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G79" s="9" t="s">
+      <c r="F79" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="H79" s="10"/>
+      <c r="G79" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="10">
         <v>79</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C80" s="8" t="s">
+      <c r="B80" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="E80" s="8" t="s">
+      <c r="D80" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="E80" s="10">
+        <v>1235647899</v>
+      </c>
+      <c r="F80" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="G80" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="H80" s="8"/>
+      <c r="H80" s="10"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="8">
         <v>80</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="10" t="s">
+      <c r="B81" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E81" s="10">
-        <v>1235647899</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H81" s="10"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="10">
         <v>81</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G82" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="8"/>
+      <c r="H82" s="10"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="9">
+      <c r="A83" s="8">
         <v>82</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D83" s="10" t="s">
+      <c r="B83" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10" t="s">
+      <c r="E83" s="8">
+        <v>97890456789</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G83" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H83" s="10"/>
+      <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="10">
         <v>83</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="11" t="s">
+      <c r="B84" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E84" s="8">
-        <v>97890456789</v>
-      </c>
-      <c r="F84" s="8" t="s">
+      <c r="E84" s="10"/>
+      <c r="F84" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G84" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="H84" s="8"/>
+      <c r="H84" s="10"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="8">
         <v>84</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85" s="10" t="s">
+      <c r="B85" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10" t="s">
+      <c r="E85" s="8">
+        <v>1230</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="G85" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H85" s="10"/>
+      <c r="H85" s="8"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="10">
         <v>85</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E86" s="8">
-        <v>1230</v>
-      </c>
-      <c r="F86" s="8" t="s">
+      <c r="E86" s="10">
+        <v>1550</v>
+      </c>
+      <c r="F86" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="G86" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H86" s="10"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="8">
+        <v>86</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H86" s="8"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="9">
-        <v>86</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" s="10" t="s">
+      <c r="E87" s="8"/>
+      <c r="F87" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E87" s="10">
-        <v>1550</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H87" s="10"/>
+      <c r="G87" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H87" s="8"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="10">
         <v>87</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8" t="s">
+      <c r="G88" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="G88" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H88" s="8"/>
+      <c r="H88" s="10"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10" t="s">
+      <c r="E89" s="8"/>
+      <c r="F89" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="G89" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="H89" s="10"/>
+      <c r="G89" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="10">
         <v>89</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H90" s="8"/>
+      <c r="G90" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H90" s="10"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="9">
+      <c r="A91" s="8">
         <v>90</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="H91" s="10"/>
+      <c r="C91" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="10">
         <v>91</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H92" s="8"/>
+      <c r="B92" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10">
+        <v>4</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="10"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="8">
         <v>92</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10">
-        <v>4</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="10"/>
+      <c r="B93" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H93" s="8"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="10">
         <v>93</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10">
+        <v>4</v>
+      </c>
+      <c r="F94" s="10"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="8">
+        <v>94</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C95" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H94" s="8"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="9">
-        <v>94</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10">
-        <v>4</v>
-      </c>
-      <c r="F95" s="10"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="10"/>
+      <c r="D95" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H95" s="8"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="10">
         <v>95</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H96" s="8"/>
+      <c r="B96" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10">
+        <v>4</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="10"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="8">
         <v>96</v>
       </c>
-      <c r="B97" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10">
-        <v>4</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="10"/>
+      <c r="B97" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="8"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="10">
         <v>97</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C98" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="8"/>
+      <c r="C98" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H98" s="10"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="9">
+      <c r="A99" s="8">
         <v>98</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H99" s="10"/>
+      <c r="B99" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="8">
+        <v>4</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="8"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="10">
         <v>99</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="8">
-        <v>4</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" s="8"/>
+      <c r="B100" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H100" s="10"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="8">
         <v>100</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H101" s="10"/>
+      <c r="B101" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="8">
+        <v>4</v>
+      </c>
+      <c r="F101" s="8"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="8"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="10">
         <v>101</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H102" s="10"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="8">
+        <v>102</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="8">
+      <c r="C103" s="8"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="8">
         <v>4</v>
       </c>
-      <c r="F102" s="8"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="8"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="9">
-        <v>102</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H103" s="10"/>
+      <c r="F103" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="8"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="10">
         <v>103</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="8">
-        <v>4</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" s="8"/>
+      <c r="B104" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H104" s="10"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="8">
         <v>104</v>
       </c>
-      <c r="B105" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="H105" s="10"/>
+      <c r="B105" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="8">
+        <v>2</v>
+      </c>
+      <c r="F105" s="8"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="8"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="10">
         <v>105</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="8">
-        <v>2</v>
-      </c>
-      <c r="F106" s="8"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="8"/>
+      <c r="B106" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H106" s="10"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="9">
+      <c r="A107" s="8">
         <v>106</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10" t="s">
+      <c r="B107" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="G107" s="9" t="s">
+      <c r="G107" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H107" s="10"/>
+      <c r="H107" s="8"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="10">
         <v>107</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D108" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H108" s="8"/>
+      <c r="D108" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H108" s="10"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="8">
         <v>108</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109" s="10" t="s">
+      <c r="B109" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D109" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10" t="s">
+      <c r="D109" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E109" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="G109" s="9" t="s">
+      <c r="F109" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="H109" s="10"/>
+      <c r="G109" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H109" s="8"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="10">
         <v>109</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H110" s="10"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="8">
+        <v>110</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G110" s="7" t="s">
+      <c r="C111" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H110" s="8"/>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="9">
-        <v>110</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10" t="s">
+      <c r="E111" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="G111" s="9" t="s">
+      <c r="F111" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="H111" s="10"/>
+      <c r="G111" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H111" s="8"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="10">
         <v>111</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D112" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="E112" s="8" t="s">
+      <c r="D112" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F112" s="8" t="s">
+      <c r="E112" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="G112" s="7" t="s">
+      <c r="F112" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="H112" s="8"/>
+      <c r="G112" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H112" s="10"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="8">
         <v>112</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C113" s="10" t="s">
+      <c r="B113" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D113" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F113" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="H113" s="10"/>
+      <c r="D113" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H113" s="8"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="10">
         <v>113</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10">
+        <v>4</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" s="10"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="8">
+        <v>114</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C115" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D114" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H114" s="8"/>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="9">
-        <v>114</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10">
-        <v>4</v>
-      </c>
-      <c r="F115" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" s="10"/>
+      <c r="D115" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H115" s="8"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="10">
         <v>115</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H116" s="8"/>
+      <c r="B116" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10">
+        <v>4</v>
+      </c>
+      <c r="F116" s="10"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="10"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="8">
         <v>116</v>
       </c>
-      <c r="B117" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10">
-        <v>4</v>
-      </c>
-      <c r="F117" s="10"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="10"/>
+      <c r="B117" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H117" s="8"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="10">
         <v>117</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10">
+        <v>4</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" s="10"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="8">
+        <v>118</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H118" s="8"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="9">
-        <v>118</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10">
-        <v>4</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="10"/>
+      <c r="C119" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H119" s="8"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="10">
         <v>119</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H120" s="8"/>
+      <c r="B120" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10">
+        <v>1</v>
+      </c>
+      <c r="F120" s="10"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="10"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="8">
         <v>120</v>
       </c>
-      <c r="B121" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10">
-        <v>1</v>
-      </c>
-      <c r="F121" s="10"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="10"/>
+      <c r="B121" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="8"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="10">
         <v>121</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10">
+        <v>1</v>
+      </c>
+      <c r="F122" s="10"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="10"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="8">
+        <v>122</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C123" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D123" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="8"/>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="9">
-        <v>122</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10">
-        <v>1</v>
-      </c>
-      <c r="F123" s="10"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="10"/>
+      <c r="H123" s="8"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="10">
         <v>123</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D124" s="11" t="s">
+      <c r="B124" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10">
+        <v>3</v>
+      </c>
+      <c r="F124" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8" t="s">
+      <c r="G124" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="G124" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H124" s="8"/>
+      <c r="H124" s="10"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="8">
         <v>124</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10">
-        <v>3</v>
-      </c>
-      <c r="F125" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="H125" s="10"/>
+      <c r="B125" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H125" s="8"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="10">
         <v>125</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10">
+        <v>3</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H126" s="10"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="8">
+        <v>126</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C127" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D126" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G126" s="7" t="s">
+      <c r="D127" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="H126" s="8"/>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="9">
-        <v>126</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10">
-        <v>3</v>
-      </c>
-      <c r="F127" s="10" t="s">
+      <c r="E127" s="8"/>
+      <c r="F127" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="G127" s="9" t="s">
+      <c r="G127" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H127" s="10"/>
+      <c r="H127" s="8"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="10">
         <v>127</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D128" s="11" t="s">
+      <c r="D128" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8" t="s">
+      <c r="E128" s="10"/>
+      <c r="F128" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="G128" s="7" t="s">
+      <c r="G128" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="H128" s="8"/>
+      <c r="H128" s="10"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="8">
         <v>128</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="G129" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="H129" s="10"/>
+      <c r="B129" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="8">
+        <v>2</v>
+      </c>
+      <c r="F129" s="8"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="8"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="10">
         <v>129</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="8">
-        <v>2</v>
-      </c>
-      <c r="F130" s="8"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="8"/>
+      <c r="B130" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H130" s="10"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="9">
+      <c r="A131" s="8">
         <v>130</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D131" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E131" s="10" t="s">
+      <c r="D131" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="F131" s="10" t="s">
+      <c r="E131" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G131" s="9" t="s">
+      <c r="F131" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H131" s="10"/>
+      <c r="G131" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H131" s="8"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="10">
         <v>131</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C132" s="8" t="s">
+      <c r="B132" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C132" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D132" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="E132" s="8" t="s">
+      <c r="D132" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="F132" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H132" s="8"/>
+      <c r="E132" s="10">
+        <v>9889656446</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H132" s="10"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="8">
         <v>132</v>
       </c>
-      <c r="B133" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C133" s="10" t="s">
+      <c r="B133" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D133" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G133" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E133" s="10">
-        <v>9889656446</v>
-      </c>
-      <c r="F133" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H133" s="10"/>
+      <c r="H133" s="8"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="10">
         <v>133</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" s="11" t="s">
+      <c r="B134" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10">
+        <v>4</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H134" s="10"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="8">
+        <v>134</v>
+      </c>
+      <c r="B135" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8" t="s">
+      <c r="C135" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="G134" s="7" t="s">
+      <c r="E135" s="8"/>
+      <c r="F135" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="H134" s="8"/>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="9">
-        <v>134</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10">
-        <v>4</v>
-      </c>
-      <c r="F135" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H135" s="10"/>
+      <c r="G135" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H135" s="8"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="10">
         <v>135</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G136" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C136" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H136" s="8"/>
+      <c r="H136" s="10"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="8">
         <v>136</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G137" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C137" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G137" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="H137" s="10"/>
+      <c r="H137" s="8"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="10">
         <v>137</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G138" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="H138" s="10"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="8">
+        <v>138</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C139" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D138" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8" t="s">
+      <c r="D139" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="G138" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H138" s="8"/>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="9">
-        <v>138</v>
-      </c>
-      <c r="B139" s="10" t="s">
+      <c r="E139" s="8"/>
+      <c r="F139" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G139" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C139" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="G139" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="H139" s="10"/>
+      <c r="H139" s="8"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="10">
         <v>139</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="G140" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C140" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H140" s="8"/>
+      <c r="H140" s="10"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="8">
         <v>140</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C141" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="G141" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="H141" s="10"/>
+      <c r="H141" s="8"/>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="10">
         <v>141</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G142" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="H142" s="10"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="8">
+        <v>142</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D142" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8" t="s">
+      <c r="D143" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="G142" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H142" s="8"/>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="9">
-        <v>142</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D143" s="10" t="s">
+      <c r="E143" s="8"/>
+      <c r="F143" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10" t="s">
+      <c r="G143" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G143" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="H143" s="10"/>
+      <c r="H143" s="8"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="10">
         <v>143</v>
       </c>
-      <c r="B144" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H144" s="8"/>
+      <c r="B144" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10">
+        <v>5</v>
+      </c>
+      <c r="F144" s="10"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="10"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="8">
         <v>144</v>
       </c>
-      <c r="B145" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10">
-        <v>5</v>
-      </c>
-      <c r="F145" s="10"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="10"/>
+      <c r="B145" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H145" s="8"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="10">
         <v>145</v>
       </c>
-      <c r="B146" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H146" s="8"/>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="9">
-        <v>146</v>
-      </c>
-      <c r="B147" s="10" t="s">
+      <c r="B146" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10">
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10">
         <v>4</v>
       </c>
-      <c r="F147" s="10"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="10"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B4:B17 C7:C9 C14:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B4:B17 B73:B75 C7:C9 C14:C17 C73:C75">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8 L10 C18:C28">
@@ -5583,17 +5544,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9 L11 L12 L13 L17 C2:C3 L4:L7 L14:L16">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12 K13 K17 B49 B50 B51 B52 B53 B54 B66 B70 B71 B94 B95 B101 B102 B116 B117 B125 B127 B128 B1:B3 B18:B48 B55:B56 B57:B65 B67:B69 B72:B73 B77:B93 B96:B97 B98:B100 B103:B104 B105:B115 B118:B119 B120:B123 B130:B145 B146:B147 K4:K11 K14:K16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12 K13 K17 B48 B49 B50 B51 B52 B53 B65 B69 B70 B93 B94 B100 B101 B115 B116 B124 B126 B127 B1:B3 B18:B38 B39:B47 B54:B55 B56:B64 B66:B68 B71:B72 B76:B92 B95:B96 B97:B99 B102:B103 B104:B114 B117:B118 B119:B122 B129:B144 B145:B146 K4:K11 K14:K16">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C47 C50 C68 C72 C96 C99 C103 C118 C29:C35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C49 C67 C71 C95 C98 C102 C117 C29:C35">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C91">
       <formula1>[6]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:B76 C74:C76">
-      <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5623,7 +5581,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5631,20 +5589,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5655,20 +5613,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5676,47 +5634,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5726,12 +5684,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5741,55 +5699,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5799,359 +5757,359 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6166,7 +6124,7 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi-ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi-ok.xlsx
@@ -1166,10 +1166,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1222,61 +1222,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1290,8 +1243,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1306,10 +1290,26 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1321,14 +1321,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1350,7 +1343,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1377,7 +1377,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,13 +1419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,31 +1443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,7 +1461,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,13 +1503,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,31 +1533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,43 +1557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,6 +1619,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1639,21 +1654,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1710,13 +1710,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1728,130 +1728,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2299,10 +2299,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q146"/>
+  <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:A146"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A124" sqref="$A124:$XFD125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="10">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B124" s="10" t="s">
         <v>11</v>
@@ -5064,7 +5064,7 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>19</v>
@@ -5073,214 +5073,216 @@
         <v>20</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H125" s="8"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="10">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10">
-        <v>3</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E126" s="10"/>
       <c r="F126" s="10" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H126" s="10"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>238</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="8">
+        <v>2</v>
+      </c>
+      <c r="F127" s="8"/>
+      <c r="G127" s="7"/>
       <c r="H127" s="8"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="10">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E128" s="10"/>
+        <v>242</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>243</v>
+      </c>
       <c r="F128" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H128" s="10"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="8">
-        <v>2</v>
-      </c>
-      <c r="F129" s="8"/>
-      <c r="G129" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="H129" s="8"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C130" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E130" s="10" t="s">
-        <v>243</v>
+        <v>250</v>
+      </c>
+      <c r="E130" s="10">
+        <v>9889656446</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>244</v>
+        <v>147</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="H130" s="10"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>247</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E131" s="8"/>
       <c r="F131" s="8" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H131" s="8"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="10">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>250</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
       <c r="E132" s="10">
-        <v>9889656446</v>
+        <v>4</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="H132" s="10"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>19</v>
+        <v>254</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H133" s="8"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="10">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10">
-        <v>4</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E134" s="10"/>
       <c r="F134" s="10" t="s">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="H134" s="10"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>254</v>
@@ -5289,11 +5291,11 @@
         <v>20</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>257</v>
@@ -5302,7 +5304,7 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="10">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>254</v>
@@ -5311,11 +5313,11 @@
         <v>20</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G136" s="9" t="s">
         <v>257</v>
@@ -5324,7 +5326,7 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>254</v>
@@ -5333,11 +5335,11 @@
         <v>20</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E137" s="8"/>
       <c r="F137" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>257</v>
@@ -5346,7 +5348,7 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>254</v>
@@ -5355,11 +5357,11 @@
         <v>20</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G138" s="9" t="s">
         <v>257</v>
@@ -5368,7 +5370,7 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>254</v>
@@ -5377,11 +5379,11 @@
         <v>20</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>257</v>
@@ -5390,7 +5392,7 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>254</v>
@@ -5399,11 +5401,11 @@
         <v>20</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="10" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G140" s="9" t="s">
         <v>257</v>
@@ -5412,51 +5414,45 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="8" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="H141" s="8"/>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="10">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="G142" s="9" t="s">
-        <v>257</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10">
+        <v>5</v>
+      </c>
+      <c r="F142" s="10"/>
+      <c r="G142" s="9"/>
       <c r="H142" s="10"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>19</v>
@@ -5465,20 +5461,20 @@
         <v>20</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H143" s="8"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="10">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>11</v>
@@ -5486,49 +5482,11 @@
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
       <c r="E144" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F144" s="10"/>
       <c r="G144" s="9"/>
       <c r="H144" s="10"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="8">
-        <v>144</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D145" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H145" s="8"/>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="10">
-        <v>145</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10">
-        <v>4</v>
-      </c>
-      <c r="F146" s="10"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -5544,7 +5502,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9 L11 L12 L13 L17 C2:C3 L4:L7 L14:L16">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12 K13 K17 B48 B49 B50 B51 B52 B53 B65 B69 B70 B93 B94 B100 B101 B115 B116 B124 B126 B127 B1:B3 B18:B38 B39:B47 B54:B55 B56:B64 B66:B68 B71:B72 B76:B92 B95:B96 B97:B99 B102:B103 B104:B114 B117:B118 B119:B122 B129:B144 B145:B146 K4:K11 K14:K16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12 K13 K17 B48 B49 B50 B51 B52 B53 B65 B69 B70 B93 B94 B100 B101 B115 B116 B124 B125 B1:B3 B18:B38 B39:B47 B54:B55 B56:B64 B66:B68 B71:B72 B76:B92 B95:B96 B97:B99 B102:B103 B104:B114 B117:B118 B119:B122 B127:B142 B143:B144 K4:K11 K14:K16">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C49 C67 C71 C95 C98 C102 C117 C29:C35">

--- a/QA/testcases/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi-ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi-ok.xlsx
@@ -1167,9 +1167,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1212,6 +1212,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1221,17 +1228,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1244,17 +1244,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1273,9 +1266,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1289,6 +1305,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1297,9 +1320,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1314,7 +1343,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1322,35 +1351,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1377,48 +1377,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1431,7 +1389,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,13 +1449,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,13 +1485,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,49 +1515,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,25 +1539,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,16 +1620,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1651,24 +1660,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1696,21 +1707,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1728,130 +1728,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2301,8 +2301,8 @@
   <sheetPr/>
   <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="A124" sqref="$A124:$XFD125"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -2413,7 +2413,7 @@
       <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2443,7 +2443,7 @@
       <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2467,7 +2467,7 @@
       <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2499,7 +2499,7 @@
       <c r="Q7" s="10"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2531,7 +2531,7 @@
       <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -2587,7 +2587,7 @@
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2611,7 +2611,7 @@
       <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -2641,7 +2641,7 @@
       <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="8">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -2665,7 +2665,7 @@
       <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="10">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2753,7 +2753,7 @@
       <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2781,7 +2781,7 @@
       <c r="Q17" s="15"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2805,7 +2805,7 @@
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="9">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -2821,7 +2821,7 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="10">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -2845,7 +2845,7 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="8">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -2891,7 +2891,7 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="9">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -2913,7 +2913,7 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -2935,7 +2935,7 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -2959,7 +2959,7 @@
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="10">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -3021,7 +3021,7 @@
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -3045,7 +3045,7 @@
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -3069,7 +3069,7 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="9">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -3093,7 +3093,7 @@
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="10">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -3117,7 +3117,7 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="8">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -3163,7 +3163,7 @@
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="9">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -3185,7 +3185,7 @@
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -3205,7 +3205,7 @@
       <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="8">
+      <c r="A37" s="10">
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -3229,7 +3229,7 @@
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="10">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -3251,7 +3251,7 @@
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="8">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3299,7 +3299,7 @@
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="8">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -3323,7 +3323,7 @@
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="10">
+      <c r="A42" s="9">
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -3347,7 +3347,7 @@
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="8">
+      <c r="A43" s="10">
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -3367,7 +3367,7 @@
       <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="10">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -3387,7 +3387,7 @@
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="8">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3429,7 +3429,7 @@
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="8">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -3449,7 +3449,7 @@
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="10">
+      <c r="A48" s="9">
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -3467,7 +3467,7 @@
       <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="8">
+      <c r="A49" s="10">
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -3489,7 +3489,7 @@
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="10">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
@@ -3505,7 +3505,7 @@
       <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="8">
+      <c r="A51" s="9">
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -3543,7 +3543,7 @@
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="8">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -3565,7 +3565,7 @@
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="10">
+      <c r="A54" s="9">
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
@@ -3583,7 +3583,7 @@
       <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="8">
+      <c r="A55" s="10">
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -3599,7 +3599,7 @@
       <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="10">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
@@ -3617,7 +3617,7 @@
       <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="8">
+      <c r="A57" s="9">
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
@@ -3665,7 +3665,7 @@
       <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="8">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -3689,7 +3689,7 @@
       <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="10">
+      <c r="A60" s="9">
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
@@ -3713,7 +3713,7 @@
       <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="8">
+      <c r="A61" s="10">
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -3737,7 +3737,7 @@
       <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="10">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -3761,7 +3761,7 @@
       <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="8">
+      <c r="A63" s="9">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
@@ -3809,7 +3809,7 @@
       <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="8">
+      <c r="A65" s="7">
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -3827,7 +3827,7 @@
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="10">
+      <c r="A66" s="9">
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
@@ -3851,7 +3851,7 @@
       <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="8">
+      <c r="A67" s="10">
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
@@ -3873,7 +3873,7 @@
       <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="10">
+      <c r="A68" s="7">
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
@@ -3893,7 +3893,7 @@
       <c r="H68" s="10"/>
     </row>
     <row r="69" s="4" customFormat="1" spans="1:8">
-      <c r="A69" s="8">
+      <c r="A69" s="9">
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
@@ -3931,7 +3931,7 @@
       <c r="H70" s="10"/>
     </row>
     <row r="71" s="4" customFormat="1" spans="1:8">
-      <c r="A71" s="8">
+      <c r="A71" s="7">
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
@@ -3953,7 +3953,7 @@
       <c r="H71" s="8"/>
     </row>
     <row r="72" s="4" customFormat="1" spans="1:8">
-      <c r="A72" s="10">
+      <c r="A72" s="9">
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
@@ -3973,7 +3973,7 @@
       <c r="H72" s="10"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="8">
+      <c r="A73" s="10">
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
@@ -3997,7 +3997,7 @@
       <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="10">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
@@ -4013,7 +4013,7 @@
       <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="8">
+      <c r="A75" s="9">
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -4055,7 +4055,7 @@
       <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="8">
+      <c r="A77" s="7">
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -4079,7 +4079,7 @@
       <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="10">
+      <c r="A78" s="9">
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
@@ -4103,7 +4103,7 @@
       <c r="H78" s="10"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="8">
+      <c r="A79" s="10">
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
@@ -4127,7 +4127,7 @@
       <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="10">
+      <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
@@ -4151,7 +4151,7 @@
       <c r="H80" s="10"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="8">
+      <c r="A81" s="9">
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
@@ -4191,7 +4191,7 @@
       <c r="H82" s="10"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="8">
+      <c r="A83" s="7">
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
@@ -4215,7 +4215,7 @@
       <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="10">
+      <c r="A84" s="9">
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
@@ -4237,7 +4237,7 @@
       <c r="H84" s="10"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="8">
+      <c r="A85" s="10">
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
@@ -4261,7 +4261,7 @@
       <c r="H85" s="8"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="10">
+      <c r="A86" s="7">
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
@@ -4285,7 +4285,7 @@
       <c r="H86" s="10"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="8">
+      <c r="A87" s="9">
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
@@ -4329,7 +4329,7 @@
       <c r="H88" s="10"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="8">
+      <c r="A89" s="7">
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
@@ -4351,7 +4351,7 @@
       <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="10">
+      <c r="A90" s="9">
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
@@ -4373,7 +4373,7 @@
       <c r="H90" s="10"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="8">
+      <c r="A91" s="10">
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
@@ -4395,7 +4395,7 @@
       <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="10">
+      <c r="A92" s="7">
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
@@ -4415,7 +4415,7 @@
       <c r="H92" s="10"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="8">
+      <c r="A93" s="9">
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
@@ -4453,7 +4453,7 @@
       <c r="H94" s="10"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="8">
+      <c r="A95" s="7">
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
@@ -4475,7 +4475,7 @@
       <c r="H95" s="8"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="10">
+      <c r="A96" s="9">
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
@@ -4495,7 +4495,7 @@
       <c r="H96" s="10"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="8">
+      <c r="A97" s="10">
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
@@ -4513,7 +4513,7 @@
       <c r="H97" s="8"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="10">
+      <c r="A98" s="7">
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
@@ -4535,7 +4535,7 @@
       <c r="H98" s="10"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="8">
+      <c r="A99" s="9">
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
@@ -4577,7 +4577,7 @@
       <c r="H100" s="10"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="8">
+      <c r="A101" s="7">
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
@@ -4593,7 +4593,7 @@
       <c r="H101" s="8"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="10">
+      <c r="A102" s="9">
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
@@ -4615,7 +4615,7 @@
       <c r="H102" s="10"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="8">
+      <c r="A103" s="10">
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
@@ -4635,7 +4635,7 @@
       <c r="H103" s="8"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="10">
+      <c r="A104" s="7">
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
@@ -4659,7 +4659,7 @@
       <c r="H104" s="10"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="8">
+      <c r="A105" s="9">
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
@@ -4693,7 +4693,7 @@
       <c r="H106" s="10"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="8">
+      <c r="A107" s="7">
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
@@ -4715,7 +4715,7 @@
       <c r="H107" s="8"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="10">
+      <c r="A108" s="9">
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
@@ -4737,7 +4737,7 @@
       <c r="H108" s="10"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="8">
+      <c r="A109" s="10">
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
@@ -4761,7 +4761,7 @@
       <c r="H109" s="8"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="10">
+      <c r="A110" s="7">
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
@@ -4779,7 +4779,7 @@
       <c r="H110" s="10"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="8">
+      <c r="A111" s="9">
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
@@ -4827,7 +4827,7 @@
       <c r="H112" s="10"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="8">
+      <c r="A113" s="7">
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
@@ -4849,7 +4849,7 @@
       <c r="H113" s="8"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="10">
+      <c r="A114" s="9">
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
@@ -4869,7 +4869,7 @@
       <c r="H114" s="10"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="8">
+      <c r="A115" s="10">
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
@@ -4891,7 +4891,7 @@
       <c r="H115" s="8"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="10">
+      <c r="A116" s="7">
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
@@ -4907,7 +4907,7 @@
       <c r="H116" s="10"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="8">
+      <c r="A117" s="9">
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
@@ -4949,7 +4949,7 @@
       <c r="H118" s="10"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="8">
+      <c r="A119" s="7">
         <v>118</v>
       </c>
       <c r="B119" s="8" t="s">
@@ -4971,7 +4971,7 @@
       <c r="H119" s="8"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="10">
+      <c r="A120" s="9">
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
@@ -4987,7 +4987,7 @@
       <c r="H120" s="10"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="8">
+      <c r="A121" s="10">
         <v>120</v>
       </c>
       <c r="B121" s="8" t="s">
@@ -5005,7 +5005,7 @@
       <c r="H121" s="8"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="10">
+      <c r="A122" s="7">
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
@@ -5021,7 +5021,7 @@
       <c r="H122" s="10"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="8">
+      <c r="A123" s="9">
         <v>122</v>
       </c>
       <c r="B123" s="8" t="s">
@@ -5044,7 +5044,7 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="10">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
         <v>11</v>
@@ -5063,8 +5063,8 @@
       <c r="H124" s="10"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="8">
-        <v>126</v>
+      <c r="A125" s="7">
+        <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>19</v>
@@ -5085,8 +5085,8 @@
       <c r="H125" s="8"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="10">
-        <v>127</v>
+      <c r="A126" s="9">
+        <v>125</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>19</v>
@@ -5107,8 +5107,8 @@
       <c r="H126" s="10"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="8">
-        <v>128</v>
+      <c r="A127" s="10">
+        <v>126</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>11</v>
@@ -5123,8 +5123,8 @@
       <c r="H127" s="8"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="10">
-        <v>129</v>
+      <c r="A128" s="7">
+        <v>127</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>65</v>
@@ -5147,8 +5147,8 @@
       <c r="H128" s="10"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="8">
-        <v>130</v>
+      <c r="A129" s="9">
+        <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>65</v>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="10">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>47</v>
@@ -5195,8 +5195,8 @@
       <c r="H130" s="10"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="8">
-        <v>132</v>
+      <c r="A131" s="7">
+        <v>130</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>19</v>
@@ -5217,8 +5217,8 @@
       <c r="H131" s="8"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="10">
-        <v>133</v>
+      <c r="A132" s="9">
+        <v>131</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>11</v>
@@ -5237,8 +5237,8 @@
       <c r="H132" s="10"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="8">
-        <v>134</v>
+      <c r="A133" s="10">
+        <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>254</v>
@@ -5259,8 +5259,8 @@
       <c r="H133" s="8"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="10">
-        <v>135</v>
+      <c r="A134" s="7">
+        <v>133</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>254</v>
@@ -5281,8 +5281,8 @@
       <c r="H134" s="10"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="8">
-        <v>136</v>
+      <c r="A135" s="9">
+        <v>134</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>254</v>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="10">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>254</v>
@@ -5325,8 +5325,8 @@
       <c r="H136" s="10"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="8">
-        <v>138</v>
+      <c r="A137" s="7">
+        <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>254</v>
@@ -5347,8 +5347,8 @@
       <c r="H137" s="8"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="10">
-        <v>139</v>
+      <c r="A138" s="9">
+        <v>137</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>254</v>
@@ -5369,8 +5369,8 @@
       <c r="H138" s="10"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="8">
-        <v>140</v>
+      <c r="A139" s="10">
+        <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>254</v>
@@ -5391,8 +5391,8 @@
       <c r="H139" s="8"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="10">
-        <v>141</v>
+      <c r="A140" s="7">
+        <v>139</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>254</v>
@@ -5413,8 +5413,8 @@
       <c r="H140" s="10"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="8">
-        <v>142</v>
+      <c r="A141" s="9">
+        <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>19</v>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="10">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B142" s="10" t="s">
         <v>11</v>
@@ -5451,8 +5451,8 @@
       <c r="H142" s="10"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="8">
-        <v>144</v>
+      <c r="A143" s="7">
+        <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>19</v>
@@ -5473,8 +5473,8 @@
       <c r="H143" s="8"/>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="10">
-        <v>145</v>
+      <c r="A144" s="9">
+        <v>143</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>11</v>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi-ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi-ok.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13230"/>
+    <workbookView windowWidth="27435" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1168,8 +1168,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1212,13 +1212,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1228,10 +1221,33 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1252,15 +1268,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1268,22 +1298,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1305,23 +1319,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1329,14 +1337,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1350,7 +1350,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1377,7 +1377,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,91 +1539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,79 +1551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,6 +1620,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1643,17 +1673,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1669,36 +1699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1710,7 +1710,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1728,130 +1728,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2301,8 +2301,8 @@
   <sheetPr/>
   <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
